--- a/EatHealty/テーブル定義書_ER図/テーブル定義書.xlsx
+++ b/EatHealty/テーブル定義書_ER図/テーブル定義書.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E1663C-83E4-4688-B33C-E8B0833506AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A932F52-9AB9-484C-9171-C788067C507C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84575686-D333-47A9-97C0-193D95775C32}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{84575686-D333-47A9-97C0-193D95775C32}"/>
   </bookViews>
   <sheets>
     <sheet name="usersテーブル" sheetId="1" r:id="rId1"/>
     <sheet name="nutrientsテーブル" sheetId="3" r:id="rId2"/>
-    <sheet name="memosテーブル" sheetId="2" r:id="rId3"/>
+    <sheet name="basisテーブル" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="73">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -81,17 +81,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>年齢</t>
-    <rPh sb="0" eb="2">
-      <t>ネンレイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>age</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>項目概要</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
@@ -384,22 +373,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>memo</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メモ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザーid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>外部キー</t>
     <rPh sb="0" eb="2">
       <t>ガイブ</t>
@@ -407,21 +380,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>投稿日</t>
-    <rPh sb="0" eb="3">
-      <t>トウコウビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>memos</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>nutrients</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -450,6 +408,10 @@
   </si>
   <si>
     <t>DATETIME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>basis</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -880,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDAB19D-07D5-4D51-A656-ADDC9C8FAE3F}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -902,13 +864,13 @@
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K1" s="5">
         <v>44999</v>
@@ -917,13 +879,13 @@
     <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="H2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" s="5">
         <v>44999</v>
@@ -932,16 +894,16 @@
     <row r="3" spans="1:11" ht="24.6" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="H3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -961,22 +923,22 @@
         <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -990,14 +952,14 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" s="2">
         <v>255</v>
@@ -1007,7 +969,7 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -1017,14 +979,14 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="2">
         <v>8</v>
@@ -1044,14 +1006,14 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8" s="2">
         <v>12</v>
@@ -1071,14 +1033,14 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H9" s="2">
         <v>255</v>
@@ -1098,14 +1060,14 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2">
         <v>255</v>
@@ -1125,14 +1087,14 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" s="2">
         <v>255</v>
@@ -1152,17 +1114,17 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>5</v>
@@ -1179,17 +1141,17 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="H13" s="2">
-        <v>2</v>
+        <v>255</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>5</v>
@@ -1206,14 +1168,14 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="H14" s="2">
         <v>255</v>
@@ -1221,34 +1183,9 @@
       <c r="I14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="2">
-        <v>255</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2" t="s">
-        <v>79</v>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1282,13 +1219,13 @@
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K1" s="5">
         <v>44999</v>
@@ -1297,13 +1234,13 @@
     <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="H2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" s="5">
         <v>44999</v>
@@ -1312,16 +1249,16 @@
     <row r="3" spans="1:11" ht="24.6" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="H3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1341,22 +1278,22 @@
         <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -1370,14 +1307,14 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" s="2">
         <v>255</v>
@@ -1387,7 +1324,7 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -1400,11 +1337,11 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="2">
         <v>255</v>
@@ -1424,16 +1361,16 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2">
         <v>255</v>
@@ -1453,16 +1390,16 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" s="2">
         <v>255</v>
@@ -1482,16 +1419,16 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2">
         <v>255</v>
@@ -1511,16 +1448,16 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" s="2">
         <v>255</v>
@@ -1540,16 +1477,16 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2">
         <v>255</v>
@@ -1569,16 +1506,16 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2">
         <v>255</v>
@@ -1598,14 +1535,14 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H14" s="2">
         <v>255</v>
@@ -1625,14 +1562,14 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H15" s="2">
         <v>255</v>
@@ -1652,14 +1589,14 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H16" s="2">
         <v>256</v>
@@ -1671,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1682,11 +1619,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD445A5-6891-47FD-AA43-A9B74B9B8E46}">
-  <dimension ref="A1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD9C0AB-E1B8-437C-9705-E37F91D89B5E}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1705,13 +1642,13 @@
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K1" s="5">
         <v>44999</v>
@@ -1720,13 +1657,13 @@
     <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="H2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" s="5">
         <v>44999</v>
@@ -1735,13 +1672,13 @@
     <row r="3" spans="1:11" ht="24.6" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="H3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>72</v>
@@ -1764,22 +1701,22 @@
         <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -1793,14 +1730,14 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6" s="2">
         <v>255</v>
@@ -1810,7 +1747,7 @@
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -1818,16 +1755,18 @@
         <v>2</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H7" s="2">
         <v>255</v>
@@ -1847,14 +1786,16 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="H8" s="2">
         <v>255</v>
@@ -1874,14 +1815,16 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
+        <v>48</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="H9" s="2">
         <v>255</v>
@@ -1889,10 +1832,10 @@
       <c r="I9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="J9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
@@ -1900,13 +1843,27 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="2">
+        <v>255</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -1915,13 +1872,27 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="2">
+        <v>255</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -1930,13 +1901,27 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="2">
+        <v>255</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -1945,44 +1930,28 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="2">
+        <v>255</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
